--- a/Lab02/Lab02.xlsx
+++ b/Lab02/Lab02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blebb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\4_term\МП\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63093258-8D15-405C-BA01-1732A455B74E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0AAC3B-4258-489A-8FD8-7A0BB116EF85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4C6D21F8-ECB3-4403-BCD2-9C6472D0417B}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>Продолжительность вычисления</t>
+  </si>
+  <si>
+    <t>Кол-во предметов</t>
+  </si>
   <si>
     <t>Кол-во контейнеров</t>
-  </si>
-  <si>
-    <t>Продолжительность вычисления</t>
   </si>
 </sst>
 </file>
@@ -149,86 +152,88 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$12</c:f>
+              <c:f>Лист1!$A$23:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$12</c:f>
+              <c:f>Лист1!$B$23:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>175</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -255,6 +260,8 @@
         <c:axId val="360392528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="21"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -303,7 +310,7 @@
                     <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t> контейнеров</a:t>
+                  <a:t> предметов</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
@@ -455,8 +462,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.45353889587331E-2"/>
-              <c:y val="6.4527246594175733E-2"/>
+              <c:x val="1.3526985597388562E-2"/>
+              <c:y val="0.21685716704766739"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -574,7 +581,525 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A34-46E3-A0B2-D66045A2BE47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="458955967"/>
+        <c:axId val="457131039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="458955967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="36"/>
+          <c:min val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество контейнеров</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457131039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="457131039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Продолжительность</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> вычисления</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458955967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1130,20 +1655,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1163,6 +2204,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C5722C-7345-4E5E-BA71-B239A3D6437A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1468,123 +2545,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AE5D69-B170-4118-B199-4EF78D1BC5B8}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <f>25</f>
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" ref="A24:A31" si="0">A23+1</f>
+        <v>13</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B29" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B30" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A12" si="0">A2+1</f>
-        <v>26</v>
-      </c>
-      <c r="B3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B4" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B6" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B7" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B8" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B9" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B10" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B11" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B12" s="1">
-        <v>175</v>
+      <c r="B31" s="1">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Lab02/Lab02.xlsx
+++ b/Lab02/Lab02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\4_term\МП\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0AAC3B-4258-489A-8FD8-7A0BB116EF85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49751B9-C6D2-4666-9CC3-4D95F3A0370E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4C6D21F8-ECB3-4403-BCD2-9C6472D0417B}"/>
   </bookViews>
@@ -2547,7 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AE5D69-B170-4118-B199-4EF78D1BC5B8}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
